--- a/output/google_maps_data_SD_Bantul.xlsx
+++ b/output/google_maps_data_SD_Bantul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/SD+Bantul/@-7.8053355,110.3375984,13z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -530,25 +524,24 @@
           <t>(0274) 2810327</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.5</v>
+        <v>-7.895393</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.895393</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.327844</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+3+Bantul/@-7.895393,110.2557461,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff58d4816d37:0xefe62dbc6b1ea369!8m2!3d-7.895393!4d110.3278439!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm6h6wlj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+3+Bantul/@-7.895393,110.2557461,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff58d4816d37:0xefe62dbc6b1ea369!8m2!3d-7.895393!4d110.3278439!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm6h6wlj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -571,25 +564,24 @@
           <t>(0274) 367629</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.3</v>
+        <v>-7.895658</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.895658</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.338305</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Bantul+Timur/@-7.895393,110.2557461,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a55f15e688fe3:0xafdb81b10b546b45!8m2!3d-7.8956583!4d110.3383045!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b6jk3t7_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Bantul+Timur/@-7.895393,110.2557461,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a55f15e688fe3:0xafdb81b10b546b45!8m2!3d-7.8956583!4d110.3383045!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b6jk3t7_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -616,25 +608,24 @@
           <t>(0274) 368163</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.5</v>
+        <v>-7.89526</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.89526</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.323501</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Unggulan+'Aisyiyah/@-7.895393,110.2557461,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff42c0fdc47f:0x205984beded4adb9!8m2!3d-7.8952598!4d110.323501!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm5ljxlz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Unggulan+'Aisyiyah/@-7.895393,110.2557461,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff42c0fdc47f:0x205984beded4adb9!8m2!3d-7.8952598!4d110.323501!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm5ljxlz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -661,25 +652,24 @@
           <t>0813-1994-2971</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.7</v>
+        <v>-7.887739</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.887739</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.326342</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Bantul+Kota/@-7.895393,110.2557461,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff56de057491:0x2e516b407bba1871!8m2!3d-7.8877389!4d110.3263418!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzylsq49?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Bantul+Kota/@-7.895393,110.2557461,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff56de057491:0x2e516b407bba1871!8m2!3d-7.8877389!4d110.3263418!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzylsq49?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -702,25 +692,24 @@
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.3</v>
+        <v>-7.869481</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.869481</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.327195</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Tegaldowo/@-7.895393,110.2557461,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7af8a625453227:0x72ab71bdae92974e!8m2!3d-7.8694811!4d110.3271951!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm6j451j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Tegaldowo/@-7.895393,110.2557461,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7af8a625453227:0x72ab71bdae92974e!8m2!3d-7.8694811!4d110.3271951!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm6j451j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -743,25 +732,24 @@
           <t>(0274) 7800835</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.3</v>
+        <v>-7.849735</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.849735</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.314771</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Bibis/@-7.895393,110.2557461,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7af86516dde6bb:0x6ea7b0f94fb38ec9!8m2!3d-7.8497346!4d110.3147711!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzv3w0l4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Bibis/@-7.895393,110.2557461,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7af86516dde6bb:0x6ea7b0f94fb38ec9!8m2!3d-7.8497346!4d110.3147711!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzv3w0l4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -784,25 +772,24 @@
           <t>(0274) 382155</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.3</v>
+        <v>-7.834069</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.834069</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.35348</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Jarakan/@-7.834069,110.2813822,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a57ca6becbe6f:0xf531512c8931092b!8m2!3d-7.834069!4d110.35348!15sCglTRCBCYW50dWySAQZzY2hvb2zgAQA!16s%2Fg%2F1hm3vdbcs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Jarakan/@-7.834069,110.2813822,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a57ca6becbe6f:0xf531512c8931092b!8m2!3d-7.834069!4d110.35348!15sCglTRCBCYW50dWySAQZzY2hvb2zgAQA!16s%2Fg%2F1hm3vdbcs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -825,25 +812,24 @@
           <t>(0274) 6463069</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>-7.869384</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.869384</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.351983</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Timbulharjo/@-7.834069,110.2813822,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a560d79ead613:0x404840d03675eead!8m2!3d-7.8693837!4d110.3519828!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b6nxg75c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Timbulharjo/@-7.834069,110.2813822,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a560d79ead613:0x404840d03675eead!8m2!3d-7.8693837!4d110.3519828!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b6nxg75c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -866,25 +852,24 @@
           <t>(0274) 382302</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.5</v>
+        <v>-7.828283</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.828283</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.345359</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+2+Padokan/@-7.834069,110.2813822,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a57cf850881af:0xf608363c772567f5!8m2!3d-7.8282835!4d110.3453591!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm4695xz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+2+Padokan/@-7.834069,110.2813822,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a57cf850881af:0xf608363c772567f5!8m2!3d-7.8282835!4d110.3453591!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm4695xz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -911,25 +896,24 @@
           <t>(0274) 380995</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.1</v>
+        <v>-7.834692</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.834692</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.374027</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Wojo/@-7.834069,110.2813822,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a57ab730220ff:0x6b305e0c4cb32dda!8m2!3d-7.8346919!4d110.3740269!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm4p8ybd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Wojo/@-7.834069,110.2813822,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a57ab730220ff:0x6b305e0c4cb32dda!8m2!3d-7.8346919!4d110.3740269!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm4p8ybd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -956,25 +940,24 @@
           <t>(0274) 368780</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.7</v>
+        <v>-7.884507</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.884507</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.317913</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Ringinharjo/@-7.8845075,110.245815,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff4d9503b203:0x405177fc8ef207f0!8m2!3d-7.8845075!4d110.3179128!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm4mwgcf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Ringinharjo/@-7.8845075,110.245815,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff4d9503b203:0x405177fc8ef207f0!8m2!3d-7.8845075!4d110.3179128!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm4mwgcf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -993,25 +976,24 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.3</v>
+        <v>-7.87506</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.87506</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.323995</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Teruman/@-7.8845075,110.245815,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7af8aea762e72f:0x6dc326425475d0cf!8m2!3d-7.87506!4d110.3239948!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm1wcfcg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Teruman/@-7.8845075,110.245815,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7af8aea762e72f:0x6dc326425475d0cf!8m2!3d-7.87506!4d110.3239948!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm1wcfcg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1030,25 +1012,24 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.6</v>
+        <v>-7.885955</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.885955</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.35969</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+2+Sabdodadi/@-7.8859552,110.2875926,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a55e7b5ea400d:0xe2ce5914b68e4e32!8m2!3d-7.8859552!4d110.3596904!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2txlw6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+2+Sabdodadi/@-7.8859552,110.2875926,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a55e7b5ea400d:0xe2ce5914b68e4e32!8m2!3d-7.8859552!4d110.3596904!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2txlw6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1071,25 +1052,24 @@
           <t>(0274) 375090</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.8</v>
+        <v>-7.828837</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.828837</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.342741</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+1+Padokan/@-7.8288373,110.2706431,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a57d01d872eeb:0xa3ca3cf85c506080!8m2!3d-7.8288373!4d110.3427409!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm5zfs1p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+1+Padokan/@-7.8288373,110.2706431,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a57d01d872eeb:0xa3ca3cf85c506080!8m2!3d-7.8288373!4d110.3427409!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm5zfs1p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1108,25 +1088,24 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.2</v>
+        <v>-7.870367</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.870367</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.371119</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Kepuhan/@-7.8288373,110.2706431,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a567b0a364699:0xb0394dad1e8f90f0!8m2!3d-7.8703666!4d110.3711186!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2cd3j0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Kepuhan/@-7.8288373,110.2706431,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a567b0a364699:0xb0394dad1e8f90f0!8m2!3d-7.8703666!4d110.3711186!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2cd3j0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1145,25 +1124,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.8</v>
+        <v>-7.878751</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.878751</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.348346</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Balong/@-7.8288373,110.2706431,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a5609fafdd26f:0x8934d2bef5b13b25!8m2!3d-7.8787513!4d110.3483463!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm635fn5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Balong/@-7.8288373,110.2706431,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a5609fafdd26f:0x8934d2bef5b13b25!8m2!3d-7.8787513!4d110.3483463!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm635fn5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1182,25 +1160,24 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.8</v>
+        <v>-7.89852</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.89852</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.35059</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Manding+Tengah/@-7.89852,110.2784922,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a55eb15f8b807:0x243e6bee621c506!8m2!3d-7.89852!4d110.35059!15sCglTRCBCYW50dWySAQZzY2hvb2zgAQA!16s%2Fg%2F1hm1pwn9_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Manding+Tengah/@-7.89852,110.2784922,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a55eb15f8b807:0x243e6bee621c506!8m2!3d-7.89852!4d110.35059!15sCglTRCBCYW50dWySAQZzY2hvb2zgAQA!16s%2Fg%2F1hm1pwn9_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1223,25 +1200,24 @@
           <t>(0274) 452459</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.5</v>
+        <v>-7.820708</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.820708</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.407138</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Jaranan(%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%97%EA%A6%AB%EA%A6%A4%EA%A6%A4%EA%A7%80)/@-7.8207084,110.3350399,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a573ec564770b:0x182edf3950b159f4!8m2!3d-7.8207084!4d110.4071377!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm52jj09?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Jaranan(%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%97%EA%A6%AB%EA%A6%A4%EA%A6%A4%EA%A7%80)/@-7.8207084,110.3350399,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a573ec564770b:0x182edf3950b159f4!8m2!3d-7.8207084!4d110.4071377!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm52jj09?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1264,25 +1240,24 @@
           <t>0852-9222-1647</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.6</v>
+        <v>-7.837559</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.837559</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.336147</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Sembungan/@-7.8375593,110.2640491,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a57d4a2e1b279:0xcd8d2facb787d3d!8m2!3d-7.8375593!4d110.3361469!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm3sq9ss?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Sembungan/@-7.8375593,110.2640491,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a57d4a2e1b279:0xcd8d2facb787d3d!8m2!3d-7.8375593!4d110.3361469!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm3sq9ss?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1305,25 +1280,24 @@
           <t>0898-5344-352</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.6</v>
+        <v>-7.908807</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.908807</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.332042</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Serut/@-7.9088068,110.2599444,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a558833ee8095:0x52b0e7555a32f434!8m2!3d-7.9088068!4d110.3320422!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm417rvx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Serut/@-7.9088068,110.2599444,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a558833ee8095:0x52b0e7555a32f434!8m2!3d-7.9088068!4d110.3320422!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm417rvx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1342,25 +1316,24 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>-7.883769</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.883769</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.333684</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Bantul+Warung/@-7.9088068,110.2599444,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a55f0f48fe9d3:0x789b69bd003c8770!8m2!3d-7.8837687!4d110.3336836!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11kqc1tbfk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Bantul+Warung/@-7.9088068,110.2599444,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a55f0f48fe9d3:0x789b69bd003c8770!8m2!3d-7.8837687!4d110.3336836!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11kqc1tbfk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -1383,25 +1356,24 @@
           <t>(0274) 368628</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.2</v>
+        <v>-7.870633</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.870633</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.337214</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Bakalan/@-7.9088068,110.2599444,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a5604a17d5e9f:0xbc00974ec68fe881!8m2!3d-7.870633!4d110.337214!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2n2fps?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Bakalan/@-7.9088068,110.2599444,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a5604a17d5e9f:0xbc00974ec68fe881!8m2!3d-7.870633!4d110.337214!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2n2fps?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1420,25 +1392,24 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.9</v>
+        <v>-7.899137</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.899137</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.31761</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Palbapang+Baru/@-7.9088068,110.2599444,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff42de0fab03:0xe1f5ae34c169cf8!8m2!3d-7.8991367!4d110.3176099!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11cn9zh3bt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Palbapang+Baru/@-7.9088068,110.2599444,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff42de0fab03:0xe1f5ae34c169cf8!8m2!3d-7.8991367!4d110.3176099!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11cn9zh3bt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1461,25 +1432,24 @@
           <t>(0274) 6461360</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.5</v>
+        <v>-7.843202</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.843202</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.33316</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Kasongan/@-7.843202,110.2610622,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a562a319f7673:0x106bae65f4a60bc2!8m2!3d-7.843202!4d110.33316!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2c_z96?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Kasongan/@-7.843202,110.2610622,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a562a319f7673:0x106bae65f4a60bc2!8m2!3d-7.843202!4d110.33316!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2c_z96?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -1502,25 +1472,24 @@
           <t>(0274) 6536902</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.5</v>
+        <v>-7.911242</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.911242</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.337808</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Karangmojo/@-7.9112419,110.2657106,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a5585f2455d61:0x5630cab9f57d8fc4!8m2!3d-7.9112419!4d110.3378084!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm635fn4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Karangmojo/@-7.9112419,110.2657106,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a5585f2455d61:0x5630cab9f57d8fc4!8m2!3d-7.9112419!4d110.3378084!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm635fn4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -1543,25 +1512,24 @@
           <t>0856-6996-6697</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.6</v>
+        <v>-7.900371</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.900371</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.356514</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Sutran/@-7.9112419,110.2657106,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a55bf919aa66b:0x2aa55b3862c882d0!8m2!3d-7.9003708!4d110.3565144!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11cm9f4xy8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Sutran/@-7.9112419,110.2657106,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a55bf919aa66b:0x2aa55b3862c882d0!8m2!3d-7.9003708!4d110.3565144!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11cm9f4xy8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1588,25 +1556,24 @@
           <t>(0274) 2811288</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.1</v>
+        <v>-7.886085</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.886085</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.345135</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+1+Trirenggo/@-7.9112419,110.2657106,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a55f03d36e559:0x9df4a98b6a80956a!8m2!3d-7.8860851!4d110.345135!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm6j4505?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+1+Trirenggo/@-7.9112419,110.2657106,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a55f03d36e559:0x9df4a98b6a80956a!8m2!3d-7.8860851!4d110.345135!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm6j4505?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1629,25 +1596,24 @@
           <t>(0274) 6461448</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.3</v>
+        <v>-7.846937</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.846937</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.329514</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Kalipucang/@-7.8469375,110.2574166,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff561806a8ab:0x5e5470ec1f7d691d!8m2!3d-7.8469375!4d110.3295144!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm67ggfb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Kalipucang/@-7.8469375,110.2574166,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff561806a8ab:0x5e5470ec1f7d691d!8m2!3d-7.8469375!4d110.3295144!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm67ggfb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1674,25 +1640,24 @@
           <t>0877-3846-8080</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.8</v>
+        <v>-7.909772</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.909772</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.340414</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDIT+Ar+Raihan+Kampus+1/@-7.909772,110.2683165,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a558f9104e537:0x8dbcffa4e33ec207!8m2!3d-7.909772!4d110.3404143!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b7sp4xfn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDIT+Ar+Raihan+Kampus+1/@-7.909772,110.2683165,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a558f9104e537:0x8dbcffa4e33ec207!8m2!3d-7.909772!4d110.3404143!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b7sp4xfn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1711,25 +1676,24 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.4</v>
+        <v>-7.889975</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.889975</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.328138</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Kanisius+Bantu/@-7.909772,110.2683165,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff5784a0a39b:0x4956ab807e8a66fa!8m2!3d-7.8899754!4d110.3281376!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F120lq9qk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Kanisius+Bantu/@-7.909772,110.2683165,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff5784a0a39b:0x4956ab807e8a66fa!8m2!3d-7.8899754!4d110.3281376!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F120lq9qk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1752,25 +1716,24 @@
           <t>(0274) 4281847</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.5</v>
+        <v>-7.838843</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.838843</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.381294</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Tamanan/@-7.8388435,110.3091958,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a56ff00209a7d:0xde3dca97431bf155!8m2!3d-7.8388435!4d110.3812936!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2sny69?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Tamanan/@-7.8388435,110.3091958,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a56ff00209a7d:0xde3dca97431bf155!8m2!3d-7.8388435!4d110.3812936!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2sny69?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1793,25 +1756,24 @@
           <t>(0274) 6461998</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.5</v>
+        <v>-7.90888</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.90888</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.319859</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+1+Palbapang/@-7.9088797,110.2477607,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff6575e33e4b:0x71321d6507a9874c!8m2!3d-7.9088797!4d110.3198585!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm6479p9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+1+Palbapang/@-7.9088797,110.2477607,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff6575e33e4b:0x71321d6507a9874c!8m2!3d-7.9088797!4d110.3198585!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm6479p9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1830,25 +1792,24 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.9</v>
+        <v>-7.823531</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.823531</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.350486</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sd+Muhammadiyah+Senggotan/@-7.8235314,110.2783879,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a57e9dd902203:0xc6568aab8e88c8bc!8m2!3d-7.8235314!4d110.3504857!15sCglTRCBCYW50dWySAQZzY2hvb2zgAQA!16s%2Fg%2F11hzxk58r_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sd+Muhammadiyah+Senggotan/@-7.8235314,110.2783879,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a57e9dd902203:0xc6568aab8e88c8bc!8m2!3d-7.8235314!4d110.3504857!15sCglTRCBCYW50dWySAQZzY2hvb2zgAQA!16s%2Fg%2F11hzxk58r_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>10 bulan lalu</t>
         </is>
@@ -1875,25 +1836,24 @@
           <t>0811-2555-199</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.1</v>
+        <v>-7.880667</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.880667</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.316568</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Islam+Al+Azhar+38+Bantul/@-7.8806671,110.2444701,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7af8b2d27908d1:0xa9f4c5d9773caf92!8m2!3d-7.8806671!4d110.3165679!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bwp2hrvv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Islam+Al+Azhar+38+Bantul/@-7.8806671,110.2444701,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7af8b2d27908d1:0xa9f4c5d9773caf92!8m2!3d-7.8806671!4d110.3165679!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bwp2hrvv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1916,25 +1876,24 @@
           <t>(0274) 444636</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.6</v>
+        <v>-7.802467</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.802467</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.418905</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Banguntapan+(%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%A7%EA%A6%94%EA%A6%B8%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%A5%EA%A6%A4%EA%A7%80)/@-7.8024667,110.3468076,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a5751ea664f0f:0xbd23cd2ff4d86377!8m2!3d-7.8024667!4d110.4189054!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm39488q?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Banguntapan+(%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%A7%EA%A6%94%EA%A6%B8%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%A5%EA%A6%A4%EA%A7%80)/@-7.8024667,110.3468076,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a5751ea664f0f:0xbd23cd2ff4d86377!8m2!3d-7.8024667!4d110.4189054!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm39488q?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1957,25 +1916,24 @@
           <t>(0274) 371610</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4</v>
+      </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>-7.842066</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.842066</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.363948</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+2+Wojo/@-7.8420656,110.2918506,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a564dd1a757cb:0xe272a2284902ac3c!8m2!3d-7.8420656!4d110.3639484!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm1yzfj9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+2+Wojo/@-7.8420656,110.2918506,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a564dd1a757cb:0xe272a2284902ac3c!8m2!3d-7.8420656!4d110.3639484!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm1yzfj9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1998,25 +1956,24 @@
           <t>(0274) 386437</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.2</v>
+        <v>-7.812709</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.812709</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.328323</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Ngrukeman/@-7.8127087,110.2562256,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7af8099f44bd45:0xf6086d02e40190cc!8m2!3d-7.8127087!4d110.3283234!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzs7316p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Ngrukeman/@-7.8127087,110.2562256,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7af8099f44bd45:0xf6086d02e40190cc!8m2!3d-7.8127087!4d110.3283234!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzs7316p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -2043,25 +2000,24 @@
           <t>(0274) 6463690</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.6</v>
+        <v>-7.85117</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.85117</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.34669</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+2+Blunyahan/@-7.8127087,110.2562256,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a563bb2e3be8d:0xb854da91c4a1123b!8m2!3d-7.85117!4d110.34669!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm58c8mr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+2+Blunyahan/@-7.8127087,110.2562256,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a563bb2e3be8d:0xb854da91c4a1123b!8m2!3d-7.85117!4d110.34669!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm58c8mr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2080,25 +2036,24 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.9</v>
+        <v>-7.913714</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.913714</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.308749</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Daleman/@-7.9137144,110.2366514,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff72eb0ecd77:0x31a304b442e3f62e!8m2!3d-7.9137144!4d110.3087492!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11ddx5gw0p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Daleman/@-7.9137144,110.2366514,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff72eb0ecd77:0x31a304b442e3f62e!8m2!3d-7.9137144!4d110.3087492!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11ddx5gw0p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -2121,25 +2076,24 @@
           <t>(0274) 4342533</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.6</v>
+        <v>-7.814983</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.814983</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.321557</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Ngebel/@-7.8149826,110.249459,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7af87eabb4b651:0x5a46f8a4b73c2327!8m2!3d-7.8149826!4d110.3215568!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm55qrkz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Ngebel/@-7.8149826,110.249459,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7af87eabb4b651:0x5a46f8a4b73c2327!8m2!3d-7.8149826!4d110.3215568!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm55qrkz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2162,25 +2116,24 @@
           <t>0852-0034-9152</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.7</v>
+        <v>-7.890817</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.890817</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.333637</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+BOPKRI+Turen+(Pelangi)+Bantul/@-7.8908172,110.2615391,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a5513f011f913:0x9d73ca188a30f023!8m2!3d-7.8908172!4d110.3336369!15sCglTRCBCYW50dWySAQZzY2hvb2zgAQA!16s%2Fg%2F11h0814w0x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+BOPKRI+Turen+(Pelangi)+Bantul/@-7.8908172,110.2615391,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a5513f011f913:0x9d73ca188a30f023!8m2!3d-7.8908172!4d110.3336369!15sCglTRCBCYW50dWySAQZzY2hvb2zgAQA!16s%2Fg%2F11h0814w0x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2203,25 +2156,24 @@
           <t>(0274) 4398278</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.4</v>
+        <v>-7.819839</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.819839</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.341041</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Nirmala/@-7.819839,110.2689432,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a57dd19dcfc9b:0x9002f51099038ac1!8m2!3d-7.819839!4d110.341041!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b72kt358?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Nirmala/@-7.819839,110.2689432,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a57dd19dcfc9b:0x9002f51099038ac1!8m2!3d-7.819839!4d110.341041!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b72kt358?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -2248,25 +2200,24 @@
           <t>(0274) 4399218</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.1</v>
+        <v>-7.828418</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.828418</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.360377</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Jageran/@-7.819839,110.2689432,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a57b749bc2dbf:0xc9fb2a4d964e7212!8m2!3d-7.8284182!4d110.3603773!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm4sm3sl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Jageran/@-7.819839,110.2689432,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a57b749bc2dbf:0xc9fb2a4d964e7212!8m2!3d-7.8284182!4d110.3603773!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm4sm3sl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2285,25 +2236,24 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.1</v>
+        <v>-7.840006</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.840006</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.354072</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Sawit/@-7.819839,110.2689432,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a56357a20a697:0xb1fa1bde641e39d0!8m2!3d-7.8400062!4d110.354072!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm4wtp1x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Sawit/@-7.819839,110.2689432,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a56357a20a697:0xb1fa1bde641e39d0!8m2!3d-7.8400062!4d110.354072!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm4wtp1x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2322,25 +2272,24 @@
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.5</v>
+        <v>-7.858326</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.858326</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.342139</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Monggang(%EA%A6%A9%EA%A6%BA%EA%A6%B4%EA%A6%81%EA%A6%92%EA%A6%81)/@-7.819839,110.2689432,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a5622afab42e9:0x9500e0c7fc9d753b!8m2!3d-7.8583259!4d110.3421385!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11btrs216g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Monggang(%EA%A6%A9%EA%A6%BA%EA%A6%B4%EA%A6%81%EA%A6%92%EA%A6%81)/@-7.819839,110.2689432,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a5622afab42e9:0x9500e0c7fc9d753b!8m2!3d-7.8583259!4d110.3421385!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11btrs216g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2363,25 +2312,24 @@
           <t>(0274) 4281534</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4</v>
+      </c>
       <c r="F48" t="n">
-        <v>4</v>
+        <v>-7.852864</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.852864</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.37299</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Ngoto+(%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%94%EA%A6%BA%EA%A6%B4%EA%A6%A0%EA%A6%BA%EA%A6%B4)/@-7.819839,110.2689432,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a54557f0a6457:0x44d844e3f3f2f07a!8m2!3d-7.8528639!4d110.3729895!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2ry3lv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Ngoto+(%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%94%EA%A6%BA%EA%A6%B4%EA%A6%A0%EA%A6%BA%EA%A6%B4)/@-7.819839,110.2689432,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a54557f0a6457:0x44d844e3f3f2f07a!8m2!3d-7.8528639!4d110.3729895!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2ry3lv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -2404,25 +2352,24 @@
           <t>(0274) 6466432</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.4</v>
+        <v>-7.86324</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.86324</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.340412</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Karanggondang/@-7.819839,110.2689432,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a5618ffffffff:0x81be00a628e29eef!8m2!3d-7.8632397!4d110.3404121!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bc7rdth1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Karanggondang/@-7.819839,110.2689432,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a5618ffffffff:0x81be00a628e29eef!8m2!3d-7.8632397!4d110.3404121!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bc7rdth1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2441,25 +2388,24 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.1</v>
+        <v>-7.90466</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.90466</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.33063</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Peni/@-7.90466,110.2585322,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff61de2468d9:0x2db03bad3f582fca!8m2!3d-7.90466!4d110.33063!15sCglTRCBCYW50dWySAQZzY2hvb2zgAQA!16s%2Fg%2F1pzwk7p4r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Peni/@-7.90466,110.2585322,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff61de2468d9:0x2db03bad3f582fca!8m2!3d-7.90466!4d110.33063!15sCglTRCBCYW50dWySAQZzY2hvb2zgAQA!16s%2Fg%2F1pzwk7p4r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2482,25 +2428,24 @@
           <t>(0274) 4353642</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.6</v>
+        <v>-7.819903</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.819903</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.420161</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+1+Sekarsuli/@-7.8199028,110.348063,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a5731584fac7d:0x38e2dae73d006455!8m2!3d-7.8199028!4d110.4201608!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm4rcs0n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+1+Sekarsuli/@-7.8199028,110.348063,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a5731584fac7d:0x38e2dae73d006455!8m2!3d-7.8199028!4d110.4201608!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm4rcs0n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2519,25 +2464,24 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.4</v>
+        <v>-7.842498</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.842498</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.346764</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Winongo/@-7.8424983,110.2746664,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a56334293ec2f:0x4fb0832844de7ef8!8m2!3d-7.8424983!4d110.3467642!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzr68912?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Winongo/@-7.8424983,110.2746664,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a56334293ec2f:0x4fb0832844de7ef8!8m2!3d-7.8424983!4d110.3467642!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzr68912?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2560,25 +2504,24 @@
           <t>(0274) 4547843</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F53" t="n">
-        <v>4.8</v>
+        <v>-7.847325</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.847325</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.382882</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Grojogan/@-7.8473249,110.3107842,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a56f7685d9c23:0x54e594e3ce96cbed!8m2!3d-7.8473249!4d110.382882!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2lr31v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Grojogan/@-7.8473249,110.3107842,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a56f7685d9c23:0x54e594e3ce96cbed!8m2!3d-7.8473249!4d110.382882!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2lr31v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2601,25 +2544,24 @@
           <t>(0274) 6460473</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>-7.905803</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.905803</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.33194</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Islam+Terpadu+Samawi/@-7.9058027,110.2598418,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a5589f7d9370b:0xb816e64d4d180534!8m2!3d-7.9058027!4d110.3319396!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bc7rcx_p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Islam+Terpadu+Samawi/@-7.9058027,110.2598418,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a5589f7d9370b:0xb816e64d4d180534!8m2!3d-7.9058027!4d110.3319396!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bc7rcx_p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2642,25 +2584,24 @@
           <t>(0274) 444175</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F55" t="n">
-        <v>4.5</v>
+        <v>-7.807817</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.807817</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.411024</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Jomblangan/@-7.8078171,110.3389261,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a57443609d91d:0xd24f5bb79e57f7a9!8m2!3d-7.8078171!4d110.4110239!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2w7ykk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Jomblangan/@-7.8078171,110.3389261,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a57443609d91d:0xd24f5bb79e57f7a9!8m2!3d-7.8078171!4d110.4110239!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2w7ykk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2683,25 +2624,24 @@
           <t>0811-2952-592</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>4</v>
+      </c>
       <c r="F56" t="n">
-        <v>4</v>
+        <v>-7.88599</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.88599</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.342629</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Priyan/@-7.8859898,110.2705315,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a55fb4b5eebeb:0xbf23b4d25371b7c2!8m2!3d-7.8859898!4d110.3426293!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bwfmhzq2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Priyan/@-7.8859898,110.2705315,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a55fb4b5eebeb:0xbf23b4d25371b7c2!8m2!3d-7.8859898!4d110.3426293!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bwfmhzq2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2720,25 +2660,24 @@
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F57" t="n">
-        <v>4.8</v>
+        <v>-7.857525</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.857525</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.32499</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Kalangan/@-7.8859898,110.2705315,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7af89f2b3881a9:0xc7ce388c37987228!8m2!3d-7.8575252!4d110.3249897!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11g65dzk5t?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Kalangan/@-7.8859898,110.2705315,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7af89f2b3881a9:0xc7ce388c37987228!8m2!3d-7.8575252!4d110.3249897!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11g65dzk5t?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2761,25 +2700,24 @@
           <t>(0274) 4399320</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F58" t="n">
-        <v>4.4</v>
+        <v>-7.828998</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.828998</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.365263</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Krapyak+Wetan/@-7.828998,110.2931652,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a564b01e88661:0x87cd1eaaa3f93e0a!8m2!3d-7.828998!4d110.365263!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm5y1tsh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Krapyak+Wetan/@-7.828998,110.2931652,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a564b01e88661:0x87cd1eaaa3f93e0a!8m2!3d-7.828998!4d110.365263!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm5y1tsh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2802,25 +2740,24 @@
           <t>(0274) 4435919</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F59" t="n">
-        <v>4.3</v>
+        <v>-7.807225</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.807225</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.419296</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Ngentak/@-7.8072249,110.347198,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a574e9392d4a5:0x89a288a44c7b69f8!8m2!3d-7.8072249!4d110.4192958!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm1s9sb0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Ngentak/@-7.8072249,110.347198,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a574e9392d4a5:0x89a288a44c7b69f8!8m2!3d-7.8072249!4d110.4192958!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm1s9sb0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2847,25 +2784,24 @@
           <t>0823-3879-9878</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F60" t="n">
-        <v>4.8</v>
+        <v>-7.813107</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.813107</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.323634</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Islam+Terpadu+Insan+Utama/@-7.8131071,110.2515358,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7af80e9ea7bbd5:0x9f9d59e857e63446!8m2!3d-7.8131071!4d110.3236336!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm3wg6bn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Islam+Terpadu+Insan+Utama/@-7.8131071,110.2515358,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7af80e9ea7bbd5:0x9f9d59e857e63446!8m2!3d-7.8131071!4d110.3236336!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm3wg6bn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2888,25 +2824,24 @@
           <t>(0274) 6990123</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F61" t="n">
-        <v>4.4</v>
+        <v>-7.89441</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.89441</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.388488</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Sindet+(%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%B1%EA%A6%B6%EA%A6%A4%EA%A7%80%EA%A6%9D%EA%A6%BA%EA%A6%A0%EA%A7%80+)/@-7.8944104,110.3163902,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a543710fa8d8d:0x97e719d57d39e6be!8m2!3d-7.8944104!4d110.388488!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm5r887b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Sindet+(%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%B1%EA%A6%B6%EA%A6%A4%EA%A7%80%EA%A6%9D%EA%A6%BA%EA%A6%A0%EA%A7%80+)/@-7.8944104,110.3163902,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a543710fa8d8d:0x97e719d57d39e6be!8m2!3d-7.8944104!4d110.388488!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm5r887b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2933,25 +2868,24 @@
           <t>(0274) 4534850</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F62" t="n">
-        <v>4.8</v>
+        <v>-7.792603</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.792603</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.402534</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Kanisius+Sorowajan/@-7.7926029,110.3304359,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a59e07448ed1b:0x1c7518419f94537e!8m2!3d-7.7926029!4d110.4025337!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b66l5mvr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Kanisius+Sorowajan/@-7.7926029,110.3304359,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a59e07448ed1b:0x1c7518419f94537e!8m2!3d-7.7926029!4d110.4025337!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b66l5mvr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2974,25 +2908,24 @@
           <t>(0274) 7486563</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F63" t="n">
-        <v>4.5</v>
+        <v>-7.85457</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.85457</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.36455</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Jurug/@-7.8545698,110.2924518,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a5646ac96436f:0x6cd985ab408467!8m2!3d-7.8545698!4d110.3645496!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzthft36?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Jurug/@-7.8545698,110.2924518,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a5646ac96436f:0x6cd985ab408467!8m2!3d-7.8545698!4d110.3645496!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzthft36?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -3011,25 +2944,24 @@
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F64" t="n">
-        <v>4.5</v>
+        <v>-7.826371</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.826371</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.312297</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Donotirto/@-7.8263712,110.2401987,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7af86931cc3a83:0xfef47e946f73a61f!8m2!3d-7.8263712!4d110.3122965!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm56t72n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Donotirto/@-7.8263712,110.2401987,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7af86931cc3a83:0xfef47e946f73a61f!8m2!3d-7.8263712!4d110.3122965!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm56t72n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3052,25 +2984,24 @@
           <t>(0274) 415771</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F65" t="n">
-        <v>3.5</v>
+        <v>-7.805332</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.805332</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.33248</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Rejodadi/@-7.8263712,110.2401987,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a57fda04b13e1:0xe35750b02133bd80!8m2!3d-7.8053323!4d110.3324803!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm5m9ybb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Rejodadi/@-7.8263712,110.2401987,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a57fda04b13e1:0xe35750b02133bd80!8m2!3d-7.8053323!4d110.3324803!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm5m9ybb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -3093,25 +3024,24 @@
           <t>(0274) 6465250</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F66" t="n">
-        <v>4.4</v>
+        <v>-7.839338</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.839338</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.301344</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Sribitan+1/@-7.8263712,110.2401987,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7af861c5ccd267:0xfe3537127a40ba44!8m2!3d-7.8393379!4d110.301344!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm4l6c3c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Sribitan+1/@-7.8263712,110.2401987,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7af861c5ccd267:0xfe3537127a40ba44!8m2!3d-7.8393379!4d110.301344!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm4l6c3c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3130,25 +3060,24 @@
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F67" t="n">
-        <v>4.5</v>
+        <v>-7.868901</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.868901</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.391886</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Jejeran(+%EA%A6%B1%EA%A7%80%EA%A6%A2%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%97%EA%A6%BC%EA%A6%97%EA%A6%BC%EA%A6%AB%EA%A6%A4%EA%A7%80)/@-7.868901,110.3197878,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a569add7558fd:0xd071d06e2fd87da6!8m2!3d-7.868901!4d110.3918856!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b6hqw50n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Jejeran(+%EA%A6%B1%EA%A7%80%EA%A6%A2%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%97%EA%A6%BC%EA%A6%97%EA%A6%BC%EA%A6%AB%EA%A6%A4%EA%A7%80)/@-7.868901,110.3197878,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a569add7558fd:0xd071d06e2fd87da6!8m2!3d-7.868901!4d110.3918856!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b6hqw50n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -3167,25 +3096,24 @@
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F68" t="n">
-        <v>4.1</v>
+        <v>-7.858717</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.858717</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.374435</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Gandok/@-7.868901,110.3197878,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a5660eab153c5:0xdf54fcf0e1496826!8m2!3d-7.8587174!4d110.3744352!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b6nvl4kf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Gandok/@-7.868901,110.3197878,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a5660eab153c5:0xdf54fcf0e1496826!8m2!3d-7.8587174!4d110.3744352!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b6nvl4kf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3208,25 +3136,24 @@
           <t>(0274) 6465246</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F69" t="n">
-        <v>4.1</v>
+        <v>-7.835625</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.835625</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.30912</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Bangunjiwo/@-7.8356246,110.2370226,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7af860c5bc59bb:0xa08105144a4e42d5!8m2!3d-7.8356246!4d110.3091204!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2z0fmq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J69" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Bangunjiwo/@-7.8356246,110.2370226,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7af860c5bc59bb:0xa08105144a4e42d5!8m2!3d-7.8356246!4d110.3091204!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2z0fmq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3245,25 +3172,24 @@
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F70" t="n">
-        <v>4.5</v>
+        <v>-7.91917</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.91917</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.28454</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Salam/@-7.91917,110.2124422,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff01f2f4f049:0xbf6cc6b461dbce5f!8m2!3d-7.91917!4d110.28454!15sCglTRCBCYW50dWySAQZzY2hvb2zgAQA!16s%2Fg%2F1hm1s9sc8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Salam/@-7.91917,110.2124422,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff01f2f4f049:0xbf6cc6b461dbce5f!8m2!3d-7.91917!4d110.28454!15sCglTRCBCYW50dWySAQZzY2hvb2zgAQA!16s%2Fg%2F1hm1s9sc8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -3286,25 +3212,24 @@
           <t>(0274) 6460226</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F71" t="n">
-        <v>4.6</v>
+        <v>-7.908661</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.908661</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.347618</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Bakulan/@-7.9086614,110.2755204,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff561c2bb58d:0xb1d5374528cfd4ab!8m2!3d-7.9086614!4d110.3476182!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm3bvll0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3323,25 +3248,24 @@
           <t>(0274) 6466350</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>4</v>
+      </c>
       <c r="F72" t="n">
-        <v>4</v>
+        <v>-7.864242</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.864242</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.338685</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Cepit+III+Pendowoharjo/@-7.9086614,110.2755204,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a561960126f19:0xf166315af3b8cb88!8m2!3d-7.864242!4d110.338685!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b6gsp_xz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J72" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Cepit+III+Pendowoharjo/@-7.9086614,110.2755204,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a561960126f19:0xf166315af3b8cb88!8m2!3d-7.864242!4d110.338685!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b6gsp_xz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3360,25 +3284,24 @@
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F73" t="n">
-        <v>4.9</v>
+        <v>-7.969351</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.969351</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.29973</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Tirtomulyo/@-7.9693514,110.2276322,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7b0026a069bc87:0x80fa376c7b80cc0e!8m2!3d-7.9693514!4d110.29973!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2ms_37?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J73" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Tirtomulyo/@-7.9693514,110.2276322,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7b0026a069bc87:0x80fa376c7b80cc0e!8m2!3d-7.9693514!4d110.29973!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2ms_37?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3401,25 +3324,24 @@
           <t>(0274) 9127506</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F74" t="n">
-        <v>4.1</v>
+        <v>-7.852296</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.852296</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.397673</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Sampangan/@-7.8522957,110.325575,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a56ebeba4ef7b:0xb6866d20e5cdb1b2!8m2!3d-7.8522957!4d110.3976728!15sCglTRCBCYW50dWySAQZzY2hvb2zgAQA!16s%2Fg%2F1hm405wwv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Sampangan/@-7.8522957,110.325575,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a56ebeba4ef7b:0xb6866d20e5cdb1b2!8m2!3d-7.8522957!4d110.3976728!15sCglTRCBCYW50dWySAQZzY2hvb2zgAQA!16s%2Fg%2F1hm405wwv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3442,25 +3364,24 @@
           <t>0897-3155-600</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F75" t="n">
-        <v>4.8</v>
+        <v>-7.816649</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.816649</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.345922</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Kanisius+Jomegatan+(%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%8F%EA%A6%A4%EA%A6%B6%EA%A6%B1%EA%A6%B6%EA%A6%AA%EA%A6%B8%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%BA%EA%A6%B4%EA%A6%A9%EA%A6%BA%EA%A6%92%EA%A6%A0%EA%A6%A4%EA%A7%80)/@-7.8166493,110.2738243,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a57e834ad240f:0x43a394da1a7fdfdc!8m2!3d-7.8166493!4d110.3459221!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b64k_2jx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J75" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Kanisius+Jomegatan+(%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%8F%EA%A6%A4%EA%A6%B6%EA%A6%B1%EA%A6%B6%EA%A6%AA%EA%A6%B8%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%BA%EA%A6%B4%EA%A6%A9%EA%A6%BA%EA%A6%92%EA%A6%A0%EA%A6%A4%EA%A7%80)/@-7.8166493,110.2738243,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a57e834ad240f:0x43a394da1a7fdfdc!8m2!3d-7.8166493!4d110.3459221!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b64k_2jx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3479,25 +3400,24 @@
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F76" t="n">
-        <v>4.9</v>
+        <v>-7.91546</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.91546</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.29565</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+1+Wijirejo/@-7.91546,110.2235522,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff0f8279ddef:0xd50c3332fe54085d!8m2!3d-7.91546!4d110.29565!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm34l2ny?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+1+Wijirejo/@-7.91546,110.2235522,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff0f8279ddef:0xd50c3332fe54085d!8m2!3d-7.91546!4d110.29565!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm34l2ny?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3520,25 +3440,24 @@
           <t>0812-2951-7034</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F77" t="n">
-        <v>4.4</v>
+        <v>-7.838103</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.838103</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.420126</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+2+Salakan(%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A7%87%EA%A7%92%EA%A7%87%EA%A6%B1%EA%A6%AD%EA%A6%8F%EA%A6%A4%EA%A7%80)/@-7.8381034,110.348028,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a56d69e69318d:0x49dbde4e3ebe2a49!8m2!3d-7.8381034!4d110.4201258!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bv3s0plw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3557,25 +3476,24 @@
           <t>(0274) 6460991</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F78" t="n">
-        <v>4.3</v>
+        <v>-7.878861</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.878861</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.31436</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+1+Iroyudan/@-7.8788606,110.242262,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff35b04b726f:0x85cf67531fc710bf!8m2!3d-7.8788606!4d110.3143598!15sCglTRCBCYW50dWySAQZzY2hvb2zgAQA!16s%2Fg%2F1hm4_0698?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J78" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+1+Iroyudan/@-7.8788606,110.242262,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7aff35b04b726f:0x85cf67531fc710bf!8m2!3d-7.8788606!4d110.3143598!15sCglTRCBCYW50dWySAQZzY2hvb2zgAQA!16s%2Fg%2F1hm4_0698?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3594,25 +3512,24 @@
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>5</v>
+      </c>
       <c r="F79" t="n">
-        <v>5</v>
+        <v>-7.887948</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.887948</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.352163</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Sabdodadi+Keyongan/@-7.8879485,110.2800648,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a55901a746a65:0xdf6c9c83da62c6fb!8m2!3d-7.8879485!4d110.3521626!15sCglTRCBCYW50dWySAQZzY2hvb2zgAQA!16s%2Fg%2F11n67lgk8r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J79" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Sabdodadi+Keyongan/@-7.8879485,110.2800648,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a55901a746a65:0xdf6c9c83da62c6fb!8m2!3d-7.8879485!4d110.3521626!15sCglTRCBCYW50dWySAQZzY2hvb2zgAQA!16s%2Fg%2F11n67lgk8r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3639,25 +3556,24 @@
           <t>(0274) 451996</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F80" t="n">
-        <v>4.6</v>
+        <v>-7.80297</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.80297</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.405167</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Islam+Terpadu+Salsabila+3+Banguntapan/@-7.8029697,110.3330695,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a575d1f30a5a3:0x6455c1e4e3d7c8a0!8m2!3d-7.8029697!4d110.4051673!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bxfz6_z5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J80" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Islam+Terpadu+Salsabila+3+Banguntapan/@-7.8029697,110.3330695,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7a575d1f30a5a3:0x6455c1e4e3d7c8a0!8m2!3d-7.8029697!4d110.4051673!15sCglTRCBCYW50dWySAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bxfz6_z5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -3680,25 +3596,24 @@
           <t>(0274) 7196533</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F81" t="n">
-        <v>4.1</v>
+        <v>-7.86403</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.86403</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.317583</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Kembang+Putihan/@-7.8640304,110.2454856,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7af8beaaa5fe75:0x4b7642d863261f81!8m2!3d-7.8640304!4d110.3175834!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzwnqw_5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J81" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Kembang+Putihan/@-7.8640304,110.2454856,13z/data=!4m10!1m2!2m1!1sSD+Bantul!3m6!1s0x2e7af8beaaa5fe75:0x4b7642d863261f81!8m2!3d-7.8640304!4d110.3175834!15sCglTRCBCYW50dWySARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzwnqw_5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
